--- a/CSC3510 S2021/Lectures/API Into To API Testing.xlsx
+++ b/CSC3510 S2021/Lectures/API Into To API Testing.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\dlash\github\CSC3510\S2021\Lectures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlash\Documents\GitHub\CSC3510\CSC3510 S2021\Lectures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C04AD1-A1B4-42E3-A13C-F665DB653249}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2988" yWindow="744" windowWidth="17316" windowHeight="9756" activeTab="7" xr2:uid="{33D1991A-F3DC-4D27-AA25-24EF37F04381}"/>
+    <workbookView xWindow="2985" yWindow="750" windowWidth="17310" windowHeight="9750" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2843,16 +2842,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632D0CA2-CAC0-4935-B11E-530908D25DE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="K11"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A36" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="11" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K11" t="s">
         <v>0</v>
       </c>
@@ -2864,14 +2863,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C684A033-C5D6-41F6-87BB-3E65A00BB583}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2879,16 +2878,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8B88B9-9755-459B-A45B-916CF974102C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2900,14 +2899,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CAC17F3-38B3-4E77-86B3-465F8C1B9FAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2915,14 +2914,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2327E554-FBF7-4ACE-B251-B759A4C92AA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="S57" sqref="S57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2930,16 +2929,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F0195B-917B-49A0-B3F0-1DF6BEBA8C02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C55"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>0</v>
       </c>
@@ -2951,14 +2950,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC40FD28-B5A5-40F6-8539-EB80163D6B99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2966,14 +2965,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD487D3-CD2D-4C90-BBC3-E4DCDB07C082}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
